--- a/execute/import/workbooks/National_Transplant_Hospitals.xlsx
+++ b/execute/import/workbooks/National_Transplant_Hospitals.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcanbaz/Dropbox/IUK/PAPERS/19-ComplexNetworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjblgs\PycharmProjects\git\network-simulation\execute\import\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E3198-0730-B44E-9B0F-3DAB78ABE3D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3500" windowWidth="43220" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="3495" windowWidth="43215" windowHeight="21255"/>
   </bookViews>
   <sheets>
     <sheet name="National Transplant Hospitals" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'National Transplant Hospitals'!$A$1:$E$34</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -507,9 +506,6 @@
     <t>Cleveland Clinic Florida Weston</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pensacola</t>
-  </si>
-  <si>
     <t>St. Petersburg</t>
   </si>
   <si>
@@ -2143,12 +2139,15 @@
   </si>
   <si>
     <t>infinity</t>
+  </si>
+  <si>
+    <t>Pensacola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2624,32 +2623,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="19" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="10" customWidth="1"/>
-    <col min="5" max="8" width="9.1640625" style="10"/>
+    <col min="4" max="4" width="10.85546875" style="10" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="10"/>
     <col min="9" max="9" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="10"/>
-    <col min="11" max="11" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="10"/>
+    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="11" max="11" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
@@ -2661,10 +2660,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>101</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
@@ -2704,21 +2703,21 @@
         <v>2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -2727,18 +2726,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -2747,18 +2746,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -2767,18 +2766,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -2787,18 +2786,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -2807,18 +2806,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -2827,18 +2826,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -2847,18 +2846,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -2867,18 +2866,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
@@ -2887,23 +2886,23 @@
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2912,36 +2911,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L13" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="N13" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -2950,13 +2949,13 @@
         <v>13</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J14" s="10">
         <v>2</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L14" s="10">
         <v>1</v>
@@ -2968,18 +2967,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="E15" s="7">
         <v>1</v>
@@ -2988,13 +2987,13 @@
         <v>14</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J15" s="10">
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L15" s="10">
         <v>1</v>
@@ -3006,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -3026,13 +3025,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J16" s="9">
         <v>4</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L16" s="10">
         <v>1</v>
@@ -3041,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -3061,27 +3060,27 @@
         <v>16</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J17" s="9">
         <v>5</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
@@ -3090,18 +3089,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E19" s="8">
         <v>2</v>
@@ -3110,18 +3109,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
@@ -3130,18 +3129,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
@@ -3150,18 +3149,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E22" s="8">
         <v>2</v>
@@ -3170,18 +3169,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E23" s="8">
         <v>2</v>
@@ -3190,18 +3189,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E24" s="8">
         <v>2</v>
@@ -3210,15 +3209,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>122</v>
@@ -3230,15 +3229,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>122</v>
@@ -3250,18 +3249,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="C27" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
@@ -3270,18 +3269,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="E28" s="7">
         <v>2</v>
@@ -3290,18 +3289,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -3310,18 +3309,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -3330,18 +3329,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
@@ -3350,18 +3349,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
@@ -3370,18 +3369,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -3390,18 +3389,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
@@ -3410,18 +3409,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
@@ -3430,18 +3429,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E36" s="7">
         <v>2</v>
@@ -3450,18 +3449,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E37" s="7">
         <v>2</v>
@@ -3470,18 +3469,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E38" s="7">
         <v>2</v>
@@ -3490,18 +3489,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="E39" s="7">
         <v>2</v>
@@ -3510,18 +3509,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E40" s="7">
         <v>2</v>
@@ -3530,18 +3529,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E41" s="7">
         <v>2</v>
@@ -3550,18 +3549,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E42" s="7">
         <v>2</v>
@@ -3570,18 +3569,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E43" s="7">
         <v>2</v>
@@ -3590,18 +3589,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E44" s="7">
         <v>2</v>
@@ -3610,18 +3609,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="E45" s="7">
         <v>2</v>
@@ -3630,7 +3629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>108</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>108</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>108</v>
       </c>
@@ -3710,18 +3709,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>689</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E50" s="7">
         <v>2</v>
@@ -3730,7 +3729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>124</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>124</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>124</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>124</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>124</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>124</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>124</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>124</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>124</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>124</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>155</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>159</v>
+        <v>704</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
@@ -4050,7 +4049,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>124</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>156</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="5">
         <v>3</v>
@@ -4070,7 +4069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>124</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>157</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" s="5">
         <v>3</v>
@@ -4090,7 +4089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>124</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>158</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4110,18 +4109,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" s="2">
         <v>3</v>
@@ -4130,18 +4129,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="2">
         <v>3</v>
@@ -4150,18 +4149,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" s="2">
         <v>3</v>
@@ -4170,18 +4169,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E73" s="2">
         <v>3</v>
@@ -4190,18 +4189,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E74" s="2">
         <v>3</v>
@@ -4210,18 +4209,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E75" s="2">
         <v>3</v>
@@ -4230,18 +4229,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E76" s="2">
         <v>3</v>
@@ -4250,18 +4249,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E77" s="2">
         <v>3</v>
@@ -4270,18 +4269,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="E78" s="7">
         <v>3</v>
@@ -4290,18 +4289,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E79" s="8">
         <v>3</v>
@@ -4310,18 +4309,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E80" s="8">
         <v>3</v>
@@ -4330,18 +4329,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="E81" s="7">
         <v>4</v>
@@ -4350,18 +4349,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E82" s="7">
         <v>4</v>
@@ -4370,18 +4369,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="D83" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E83" s="7">
         <v>4</v>
@@ -4390,18 +4389,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="E84" s="7">
         <v>4</v>
@@ -4410,18 +4409,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E85" s="7">
         <v>4</v>
@@ -4430,18 +4429,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>583</v>
       </c>
       <c r="E86" s="7">
         <v>4</v>
@@ -4450,18 +4449,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="E87" s="7">
         <v>4</v>
@@ -4470,18 +4469,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="E88" s="7">
         <v>4</v>
@@ -4490,18 +4489,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E89" s="7">
         <v>4</v>
@@ -4510,18 +4509,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E90" s="7">
         <v>4</v>
@@ -4530,18 +4529,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E91" s="7">
         <v>4</v>
@@ -4550,18 +4549,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E92" s="7">
         <v>4</v>
@@ -4570,18 +4569,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E93" s="7">
         <v>4</v>
@@ -4590,18 +4589,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>601</v>
       </c>
       <c r="E94" s="7">
         <v>4</v>
@@ -4610,18 +4609,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="E95" s="7">
         <v>4</v>
@@ -4630,18 +4629,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="E96" s="7">
         <v>4</v>
@@ -4650,18 +4649,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E97" s="7">
         <v>4</v>
@@ -4670,18 +4669,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E98" s="7">
         <v>4</v>
@@ -4690,18 +4689,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E99" s="7">
         <v>4</v>
@@ -4710,18 +4709,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="E100" s="7">
         <v>4</v>
@@ -4730,18 +4729,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>620</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>621</v>
       </c>
       <c r="E101" s="7">
         <v>4</v>
@@ -4750,18 +4749,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E102" s="7">
         <v>4</v>
@@ -4770,18 +4769,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E103" s="7">
         <v>4</v>
@@ -4790,18 +4789,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E104" s="7">
         <v>4</v>
@@ -4810,18 +4809,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E105" s="7">
         <v>4</v>
@@ -4830,18 +4829,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="E106" s="7">
         <v>4</v>
@@ -4850,18 +4849,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E107" s="7">
         <v>4</v>
@@ -4870,18 +4869,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E108" s="7">
         <v>4</v>
@@ -4890,18 +4889,18 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C109" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="E109" s="7">
         <v>4</v>
@@ -4910,7 +4909,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +4929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>19</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>19</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>19</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>19</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>31</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>31</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>31</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>31</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>31</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>31</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>31</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>31</v>
       </c>
@@ -5210,7 +5209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>31</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>31</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>31</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>31</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>31</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>31</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>31</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>31</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>31</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>31</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>31</v>
       </c>
@@ -5450,18 +5449,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="E137" s="8">
         <v>5</v>
@@ -5470,18 +5469,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="C138" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E138" s="7">
         <v>5</v>
@@ -5490,18 +5489,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C139" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="E139" s="7">
         <v>5</v>
@@ -5510,18 +5509,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="E140" s="8">
         <v>5</v>
@@ -5530,18 +5529,18 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E141" s="8">
         <v>5</v>
@@ -5550,18 +5549,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="E142" s="8">
         <v>5</v>
@@ -5570,18 +5569,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="D143" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="E143" s="5">
         <v>6</v>
@@ -5590,18 +5589,18 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="D144" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E144" s="8">
         <v>6</v>
@@ -5610,18 +5609,18 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="D145" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E145" s="8">
         <v>6</v>
@@ -5630,18 +5629,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="D146" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E146" s="8">
         <v>6</v>
@@ -5650,18 +5649,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>664</v>
-      </c>
       <c r="C147" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="E147" s="7">
         <v>6</v>
@@ -5670,18 +5669,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E148" s="7">
         <v>6</v>
@@ -5690,18 +5689,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E149" s="7">
         <v>6</v>
@@ -5710,18 +5709,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E150" s="7">
         <v>6</v>
@@ -5730,18 +5729,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="E151" s="7">
         <v>6</v>
@@ -5750,18 +5749,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="C152" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E152" s="5">
         <v>7</v>
@@ -5770,18 +5769,18 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E153" s="5">
         <v>7</v>
@@ -5790,18 +5789,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E154" s="5">
         <v>7</v>
@@ -5810,18 +5809,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E155" s="5">
         <v>7</v>
@@ -5830,18 +5829,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C156" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E156" s="5">
         <v>7</v>
@@ -5850,18 +5849,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="E157" s="5">
         <v>7</v>
@@ -5870,18 +5869,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E158" s="5">
         <v>7</v>
@@ -5890,18 +5889,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C159" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E159" s="5">
         <v>7</v>
@@ -5910,18 +5909,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C160" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="E160" s="5">
         <v>7</v>
@@ -5930,18 +5929,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="C161" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E161" s="7">
         <v>7</v>
@@ -5950,18 +5949,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E162" s="7">
         <v>7</v>
@@ -5970,18 +5969,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E163" s="7">
         <v>7</v>
@@ -5990,18 +5989,18 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E164" s="7">
         <v>7</v>
@@ -6010,18 +6009,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E165" s="7">
         <v>7</v>
@@ -6030,18 +6029,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E166" s="7">
         <v>7</v>
@@ -6050,18 +6049,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="C167" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" s="7">
         <v>7</v>
@@ -6070,18 +6069,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E168" s="7">
         <v>7</v>
@@ -6090,18 +6089,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>544</v>
-      </c>
       <c r="C169" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E169" s="7">
         <v>7</v>
@@ -6110,18 +6109,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C170" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="E170" s="7">
         <v>7</v>
@@ -6130,18 +6129,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="C171" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="E171" s="8">
         <v>7</v>
@@ -6150,18 +6149,18 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="E172" s="8">
         <v>7</v>
@@ -6170,18 +6169,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E173" s="8">
         <v>7</v>
@@ -6190,18 +6189,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E174" s="8">
         <v>7</v>
@@ -6210,7 +6209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>90</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>90</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>90</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>90</v>
       </c>
@@ -6290,18 +6289,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E179" s="2">
         <v>8</v>
@@ -6310,18 +6309,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E180" s="2">
         <v>8</v>
@@ -6330,18 +6329,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E181" s="2">
         <v>8</v>
@@ -6350,18 +6349,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E182" s="2">
         <v>8</v>
@@ -6370,18 +6369,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="D183" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="E183" s="5">
         <v>8</v>
@@ -6390,18 +6389,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C184" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E184" s="8">
         <v>8</v>
@@ -6410,18 +6409,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E185" s="8">
         <v>8</v>
@@ -6430,18 +6429,18 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E186" s="8">
         <v>8</v>
@@ -6450,18 +6449,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E187" s="8">
         <v>8</v>
@@ -6470,18 +6469,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E188" s="8">
         <v>8</v>
@@ -6490,18 +6489,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E189" s="8">
         <v>8</v>
@@ -6510,18 +6509,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E190" s="8">
         <v>8</v>
@@ -6530,18 +6529,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E191" s="8">
         <v>8</v>
@@ -6550,18 +6549,18 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E192" s="8">
         <v>8</v>
@@ -6570,18 +6569,18 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C193" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="E193" s="8">
         <v>8</v>
@@ -6590,18 +6589,18 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C194" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="D194" s="5" t="s">
         <v>405</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="E194" s="7">
         <v>9</v>
@@ -6610,18 +6609,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B195" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="D195" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="E195" s="7">
         <v>9</v>
@@ -6630,18 +6629,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="D196" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E196" s="7">
         <v>9</v>
@@ -6650,18 +6649,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="D197" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="E197" s="7">
         <v>9</v>
@@ -6670,18 +6669,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="E198" s="7">
         <v>9</v>
@@ -6690,18 +6689,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="D199" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="E199" s="7">
         <v>9</v>
@@ -6710,18 +6709,18 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="D200" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="E200" s="7">
         <v>9</v>
@@ -6730,18 +6729,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="D201" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E201" s="7">
         <v>9</v>
@@ -6750,18 +6749,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E202" s="7">
         <v>9</v>
@@ -6770,18 +6769,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B203" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="D203" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E203" s="7">
         <v>9</v>
@@ -6790,18 +6789,18 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E204" s="7">
         <v>9</v>
@@ -6810,18 +6809,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E205" s="7">
         <v>9</v>
@@ -6830,18 +6829,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E206" s="7">
         <v>9</v>
@@ -6850,18 +6849,18 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E207" s="7">
         <v>9</v>
@@ -6870,18 +6869,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E208" s="7">
         <v>9</v>
@@ -6890,18 +6889,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>662</v>
-      </c>
       <c r="D209" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E209" s="8">
         <v>9</v>
@@ -6910,18 +6909,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E210" s="2">
         <v>10</v>
@@ -6930,18 +6929,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E211" s="2">
         <v>10</v>
@@ -6950,18 +6949,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D212" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E212" s="2">
         <v>10</v>
@@ -6970,18 +6969,18 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C213" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E213" s="8">
         <v>10</v>
@@ -6990,18 +6989,18 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E214" s="8">
         <v>10</v>
@@ -7010,18 +7009,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E215" s="8">
         <v>10</v>
@@ -7030,18 +7029,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E216" s="8">
         <v>10</v>
@@ -7050,18 +7049,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E217" s="8">
         <v>10</v>
@@ -7070,18 +7069,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E218" s="8">
         <v>10</v>
@@ -7090,18 +7089,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E219" s="8">
         <v>10</v>
@@ -7110,18 +7109,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E220" s="8">
         <v>10</v>
@@ -7130,18 +7129,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E221" s="8">
         <v>10</v>
@@ -7150,18 +7149,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="E222" s="8">
         <v>10</v>
@@ -7170,18 +7169,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="D223" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E223" s="8">
         <v>10</v>
@@ -7190,18 +7189,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="D224" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E224" s="8">
         <v>10</v>
@@ -7210,18 +7209,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="E225" s="8">
         <v>10</v>
@@ -7230,18 +7229,18 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="D226" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E226" s="8">
         <v>10</v>
@@ -7250,18 +7249,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E227" s="8">
         <v>10</v>
@@ -7270,18 +7269,18 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="D228" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E228" s="8">
         <v>10</v>
@@ -7290,18 +7289,18 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="E229" s="8">
         <v>10</v>
@@ -7310,18 +7309,18 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="C230" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="D230" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E230" s="5">
         <v>11</v>
@@ -7330,18 +7329,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B231" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="D231" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="E231" s="5">
         <v>11</v>
@@ -7350,18 +7349,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B232" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C232" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="D232" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E232" s="5">
         <v>11</v>
@@ -7370,18 +7369,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E233" s="8">
         <v>11</v>
@@ -7390,18 +7389,18 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E234" s="8">
         <v>11</v>
@@ -7410,18 +7409,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E235" s="8">
         <v>11</v>
@@ -7430,18 +7429,18 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E236" s="8">
         <v>11</v>
@@ -7450,18 +7449,18 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E237" s="8">
         <v>11</v>
@@ -7470,18 +7469,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="C238" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E238" s="8">
         <v>11</v>
@@ -7490,18 +7489,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="E239" s="8">
         <v>11</v>
@@ -7510,18 +7509,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="C240" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="E240" s="8">
         <v>11</v>
@@ -7530,18 +7529,18 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C241" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="E241" s="8">
         <v>11</v>
@@ -7550,18 +7549,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="E242" s="8">
         <v>11</v>
@@ -7570,18 +7569,18 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E243" s="8">
         <v>11</v>
@@ -7590,18 +7589,18 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E244" s="8">
         <v>11</v>
@@ -7610,18 +7609,18 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C245" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E245" s="8">
         <v>11</v>
@@ -7630,18 +7629,18 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E246" s="8">
         <v>11</v>
@@ -7650,18 +7649,18 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E247" s="8">
         <v>11</v>
@@ -7670,18 +7669,18 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E248" s="8">
         <v>11</v>
@@ -7690,18 +7689,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>642</v>
-      </c>
       <c r="C249" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="E249" s="7">
         <v>11</v>
@@ -7710,18 +7709,18 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D250" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="D250" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="E250" s="7">
         <v>11</v>
@@ -7730,18 +7729,18 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E251" s="7">
         <v>11</v>
@@ -7750,18 +7749,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C252" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D252" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="E252" s="7">
         <v>11</v>
@@ -7770,18 +7769,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E253" s="7">
         <v>11</v>
@@ -7790,18 +7789,18 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E254" s="14">
         <v>11</v>
@@ -7811,7 +7810,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E34" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:E34">
     <sortState ref="A2:E254">
       <sortCondition ref="E1:E254"/>
     </sortState>

--- a/execute/import/workbooks/National_Transplant_Hospitals.xlsx
+++ b/execute/import/workbooks/National_Transplant_Hospitals.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="706">
   <si>
     <t>State</t>
   </si>
@@ -2139,12 +2139,6 @@
   </si>
   <si>
     <t>Pensacola</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
   </si>
   <si>
     <t>Tennessee</t>
@@ -2694,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P254"/>
+  <dimension ref="A1:N254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,16 +2701,14 @@
     <col min="3" max="3" width="70.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2732,17 +2724,11 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>101</v>
       </c>
@@ -2755,16 +2741,14 @@
       <c r="D2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
@@ -2777,19 +2761,17 @@
       <c r="D3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9">
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>275</v>
       </c>
@@ -2802,16 +2784,14 @@
       <c r="D4" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="9">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>244</v>
       </c>
@@ -2824,16 +2804,14 @@
       <c r="D5" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="9">
+      <c r="F5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>244</v>
       </c>
@@ -2846,16 +2824,14 @@
       <c r="D6" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="9">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>244</v>
       </c>
@@ -2868,16 +2844,14 @@
       <c r="D7" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="9">
+      <c r="F7" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>244</v>
       </c>
@@ -2890,16 +2864,14 @@
       <c r="D8" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="9">
+      <c r="F8" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2912,16 +2884,14 @@
       <c r="D9" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="9">
+      <c r="F9" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>244</v>
       </c>
@@ -2934,16 +2904,14 @@
       <c r="D10" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>1</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="9">
+      <c r="F10" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>244</v>
       </c>
@@ -2956,16 +2924,14 @@
       <c r="D11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="9">
+      <c r="F11" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>244</v>
       </c>
@@ -2978,21 +2944,19 @@
       <c r="D12" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>1</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="9">
+      <c r="F12" s="9">
         <v>11</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>244</v>
       </c>
@@ -3005,34 +2969,32 @@
       <c r="D13" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="9">
+      <c r="F13" s="9">
         <v>12</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="L13" s="2">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>371</v>
       </c>
@@ -3045,34 +3007,32 @@
       <c r="D14" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="9">
+      <c r="F14" s="9">
         <v>13</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>690</v>
       </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="N14" s="1">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>532</v>
       </c>
@@ -3085,34 +3045,32 @@
       <c r="D15" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="9">
+      <c r="F15" s="9">
         <v>14</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>691</v>
       </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>700</v>
+      </c>
       <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
         <v>3</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="P15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>117</v>
       </c>
@@ -3125,31 +3083,29 @@
       <c r="D16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="9">
+      <c r="F16" s="9">
         <v>15</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="L16" s="1">
+      <c r="J16" s="1">
         <v>4</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="N16" s="2">
+      <c r="L16" s="2">
         <v>1</v>
       </c>
-      <c r="O16" s="2">
+      <c r="M16" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>117</v>
       </c>
@@ -3162,25 +3118,23 @@
       <c r="D17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9">
+      <c r="F17" s="9">
         <v>16</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="L17" s="1">
+      <c r="J17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>266</v>
       </c>
@@ -3193,16 +3147,14 @@
       <c r="D18" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="12">
         <v>2</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="9">
+      <c r="F18" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>266</v>
       </c>
@@ -3215,16 +3167,14 @@
       <c r="D19" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>2</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="9">
+      <c r="F19" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>266</v>
       </c>
@@ -3237,16 +3187,14 @@
       <c r="D20" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="9">
+      <c r="F20" s="9">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>375</v>
       </c>
@@ -3259,16 +3207,14 @@
       <c r="D21" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="9">
+      <c r="F21" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>375</v>
       </c>
@@ -3281,16 +3227,14 @@
       <c r="D22" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="12">
         <v>2</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="9">
+      <c r="F22" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>375</v>
       </c>
@@ -3303,16 +3247,14 @@
       <c r="D23" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>2</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="9">
+      <c r="F23" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>375</v>
       </c>
@@ -3325,16 +3267,14 @@
       <c r="D24" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="12">
         <v>2</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="9">
+      <c r="F24" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>375</v>
       </c>
@@ -3347,16 +3287,14 @@
       <c r="D25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>2</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="9">
+      <c r="F25" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>375</v>
       </c>
@@ -3369,16 +3307,14 @@
       <c r="D26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="12">
         <v>2</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="9">
+      <c r="F26" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>481</v>
       </c>
@@ -3391,16 +3327,14 @@
       <c r="D27" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>2</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="9">
+      <c r="F27" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>481</v>
       </c>
@@ -3413,16 +3347,14 @@
       <c r="D28" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="15">
         <v>2</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="9">
+      <c r="F28" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>481</v>
       </c>
@@ -3435,16 +3367,14 @@
       <c r="D29" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="9">
+      <c r="F29" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>481</v>
       </c>
@@ -3457,16 +3387,14 @@
       <c r="D30" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="15">
         <v>2</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="9">
+      <c r="F30" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>481</v>
       </c>
@@ -3479,16 +3407,14 @@
       <c r="D31" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="9">
+      <c r="F31" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>481</v>
       </c>
@@ -3501,16 +3427,14 @@
       <c r="D32" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="15">
         <v>2</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="9">
+      <c r="F32" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>481</v>
       </c>
@@ -3523,16 +3447,14 @@
       <c r="D33" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>2</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="9">
+      <c r="F33" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>481</v>
       </c>
@@ -3545,16 +3467,14 @@
       <c r="D34" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>2</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="9">
+      <c r="F34" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>481</v>
       </c>
@@ -3567,16 +3487,14 @@
       <c r="D35" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>2</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="9">
+      <c r="F35" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>481</v>
       </c>
@@ -3589,16 +3507,14 @@
       <c r="D36" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="15">
         <v>2</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="9">
+      <c r="F36" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>481</v>
       </c>
@@ -3611,16 +3527,14 @@
       <c r="D37" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>2</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="9">
+      <c r="F37" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>481</v>
       </c>
@@ -3633,16 +3547,14 @@
       <c r="D38" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="15">
         <v>2</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="9">
+      <c r="F38" s="9">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>481</v>
       </c>
@@ -3655,16 +3567,14 @@
       <c r="D39" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>2</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="9">
+      <c r="F39" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>481</v>
       </c>
@@ -3677,16 +3587,14 @@
       <c r="D40" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <v>2</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="9">
+      <c r="F40" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>481</v>
       </c>
@@ -3699,16 +3607,14 @@
       <c r="D41" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>2</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="9">
+      <c r="F41" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>481</v>
       </c>
@@ -3721,16 +3627,14 @@
       <c r="D42" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>2</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="9">
+      <c r="F42" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>481</v>
       </c>
@@ -3743,16 +3647,14 @@
       <c r="D43" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="15">
         <v>2</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="9">
+      <c r="F43" s="9">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>481</v>
       </c>
@@ -3765,16 +3667,14 @@
       <c r="D44" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="15">
         <v>2</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="9">
+      <c r="F44" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>639</v>
       </c>
@@ -3787,18 +3687,16 @@
       <c r="D45" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="15">
         <v>2</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="9">
+      <c r="F45" s="9">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>109</v>
@@ -3809,18 +3707,16 @@
       <c r="D46" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="15">
         <v>2</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="9">
+      <c r="F46" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>110</v>
@@ -3831,18 +3727,16 @@
       <c r="D47" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="15">
         <v>2</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="9">
+      <c r="F47" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>111</v>
@@ -3853,18 +3747,16 @@
       <c r="D48" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="15">
         <v>2</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="9">
+      <c r="F48" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>112</v>
@@ -3875,16 +3767,14 @@
       <c r="D49" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="15">
         <v>2</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="9">
+      <c r="F49" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>685</v>
       </c>
@@ -3897,16 +3787,14 @@
       <c r="D50" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="15">
         <v>2</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="9">
+      <c r="F50" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>4</v>
       </c>
@@ -3919,16 +3807,14 @@
       <c r="D51" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="15">
         <v>3</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="9">
+      <c r="F51" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>4</v>
       </c>
@@ -3941,16 +3827,14 @@
       <c r="D52" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="15">
         <v>3</v>
       </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="9">
+      <c r="F52" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>4</v>
       </c>
@@ -3963,16 +3847,14 @@
       <c r="D53" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="15">
         <v>3</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="9">
+      <c r="F53" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>12</v>
       </c>
@@ -3985,16 +3867,14 @@
       <c r="D54" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="12">
         <v>3</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="9">
+      <c r="F54" s="9">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -4007,16 +3887,14 @@
       <c r="D55" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="12">
         <v>3</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="9">
+      <c r="F55" s="9">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>12</v>
       </c>
@@ -4029,16 +3907,14 @@
       <c r="D56" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="12">
         <v>3</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="9">
+      <c r="F56" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>124</v>
       </c>
@@ -4051,16 +3927,14 @@
       <c r="D57" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="15">
         <v>3</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="9">
+      <c r="F57" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>124</v>
       </c>
@@ -4073,16 +3947,14 @@
       <c r="D58" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="15">
         <v>3</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="9">
+      <c r="F58" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>124</v>
       </c>
@@ -4095,16 +3967,14 @@
       <c r="D59" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="15">
         <v>3</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="9">
+      <c r="F59" s="9">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>124</v>
       </c>
@@ -4117,16 +3987,14 @@
       <c r="D60" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="15">
         <v>3</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="9">
+      <c r="F60" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>124</v>
       </c>
@@ -4139,16 +4007,14 @@
       <c r="D61" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="15">
         <v>3</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="9">
+      <c r="F61" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>124</v>
       </c>
@@ -4161,16 +4027,14 @@
       <c r="D62" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="15">
         <v>3</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="9">
+      <c r="F62" s="9">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>124</v>
       </c>
@@ -4183,16 +4047,14 @@
       <c r="D63" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="15">
         <v>3</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="9">
+      <c r="F63" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>124</v>
       </c>
@@ -4205,16 +4067,14 @@
       <c r="D64" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="15">
         <v>3</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="9">
+      <c r="F64" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>124</v>
       </c>
@@ -4227,16 +4087,14 @@
       <c r="D65" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="15">
         <v>3</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="9">
+      <c r="F65" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>124</v>
       </c>
@@ -4249,16 +4107,14 @@
       <c r="D66" s="14" t="s">
         <v>703</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="15">
         <v>3</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="9">
+      <c r="F66" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>124</v>
       </c>
@@ -4271,16 +4127,14 @@
       <c r="D67" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="15">
         <v>3</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="9">
+      <c r="F67" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>124</v>
       </c>
@@ -4293,16 +4147,14 @@
       <c r="D68" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="15">
         <v>3</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="9">
+      <c r="F68" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>124</v>
       </c>
@@ -4315,16 +4167,14 @@
       <c r="D69" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="15">
         <v>3</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="9">
+      <c r="F69" s="9">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>161</v>
       </c>
@@ -4337,16 +4187,14 @@
       <c r="D70" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="12">
         <v>3</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="9">
+      <c r="F70" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>161</v>
       </c>
@@ -4359,16 +4207,14 @@
       <c r="D71" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="12">
         <v>3</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="9">
+      <c r="F71" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>161</v>
       </c>
@@ -4381,16 +4227,14 @@
       <c r="D72" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="12">
         <v>3</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="9">
+      <c r="F72" s="9">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>161</v>
       </c>
@@ -4403,16 +4247,14 @@
       <c r="D73" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="12">
         <v>3</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="9">
+      <c r="F73" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>233</v>
       </c>
@@ -4425,16 +4267,14 @@
       <c r="D74" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="12">
         <v>3</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="9">
+      <c r="F74" s="9">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>233</v>
       </c>
@@ -4447,16 +4287,14 @@
       <c r="D75" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="12">
         <v>3</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="9">
+      <c r="F75" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>233</v>
       </c>
@@ -4469,16 +4307,14 @@
       <c r="D76" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="12">
         <v>3</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="9">
+      <c r="F76" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>233</v>
       </c>
@@ -4491,16 +4327,14 @@
       <c r="D77" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="12">
         <v>3</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="9">
+      <c r="F77" s="9">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>336</v>
       </c>
@@ -4513,16 +4347,14 @@
       <c r="D78" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="15">
         <v>3</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="9">
+      <c r="F78" s="9">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>525</v>
       </c>
@@ -4535,16 +4367,14 @@
       <c r="D79" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="12">
         <v>3</v>
       </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="9">
+      <c r="F79" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>525</v>
       </c>
@@ -4557,16 +4387,14 @@
       <c r="D80" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="12">
         <v>3</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="9">
+      <c r="F80" s="9">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>463</v>
       </c>
@@ -4579,16 +4407,14 @@
       <c r="D81" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="15">
         <v>4</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="9">
+      <c r="F81" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>463</v>
       </c>
@@ -4601,16 +4427,14 @@
       <c r="D82" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="15">
         <v>4</v>
       </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="9">
+      <c r="F82" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>463</v>
       </c>
@@ -4623,16 +4447,14 @@
       <c r="D83" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="15">
         <v>4</v>
       </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="9">
+      <c r="F83" s="9">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>463</v>
       </c>
@@ -4645,16 +4467,14 @@
       <c r="D84" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="15">
         <v>4</v>
       </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="9">
+      <c r="F84" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>569</v>
       </c>
@@ -4667,16 +4487,14 @@
       <c r="D85" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="15">
         <v>4</v>
       </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="9">
+      <c r="F85" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>569</v>
       </c>
@@ -4689,16 +4507,14 @@
       <c r="D86" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="15">
         <v>4</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="9">
+      <c r="F86" s="9">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>569</v>
       </c>
@@ -4711,16 +4527,14 @@
       <c r="D87" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="15">
         <v>4</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="9">
+      <c r="F87" s="9">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>569</v>
       </c>
@@ -4733,16 +4547,14 @@
       <c r="D88" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="15">
         <v>4</v>
       </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="9">
+      <c r="F88" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>569</v>
       </c>
@@ -4755,16 +4567,14 @@
       <c r="D89" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="15">
         <v>4</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="9">
+      <c r="F89" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>569</v>
       </c>
@@ -4777,16 +4587,14 @@
       <c r="D90" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="15">
         <v>4</v>
       </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="9">
+      <c r="F90" s="9">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>569</v>
       </c>
@@ -4799,16 +4607,14 @@
       <c r="D91" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="15">
         <v>4</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="9">
+      <c r="F91" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>569</v>
       </c>
@@ -4821,16 +4627,14 @@
       <c r="D92" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="15">
         <v>4</v>
       </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="9">
+      <c r="F92" s="9">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>569</v>
       </c>
@@ -4843,16 +4647,14 @@
       <c r="D93" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="15">
         <v>4</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="9">
+      <c r="F93" s="9">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>569</v>
       </c>
@@ -4865,16 +4667,14 @@
       <c r="D94" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="15">
         <v>4</v>
       </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="9">
+      <c r="F94" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>569</v>
       </c>
@@ -4887,16 +4687,14 @@
       <c r="D95" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="15">
         <v>4</v>
       </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="9">
+      <c r="F95" s="9">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>569</v>
       </c>
@@ -4909,16 +4707,14 @@
       <c r="D96" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="15">
         <v>4</v>
       </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="9">
+      <c r="F96" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>569</v>
       </c>
@@ -4931,16 +4727,14 @@
       <c r="D97" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="15">
         <v>4</v>
       </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="9">
+      <c r="F97" s="9">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>569</v>
       </c>
@@ -4953,16 +4747,14 @@
       <c r="D98" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="15">
         <v>4</v>
       </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="9">
+      <c r="F98" s="9">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>569</v>
       </c>
@@ -4975,16 +4767,14 @@
       <c r="D99" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="15">
         <v>4</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="9">
+      <c r="F99" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>569</v>
       </c>
@@ -4997,16 +4787,14 @@
       <c r="D100" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="15">
         <v>4</v>
       </c>
-      <c r="F100" s="14"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="9">
+      <c r="F100" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>569</v>
       </c>
@@ -5019,16 +4807,14 @@
       <c r="D101" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="15">
         <v>4</v>
       </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="9">
+      <c r="F101" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>569</v>
       </c>
@@ -5041,16 +4827,14 @@
       <c r="D102" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="15">
         <v>4</v>
       </c>
-      <c r="F102" s="14"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="9">
+      <c r="F102" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>569</v>
       </c>
@@ -5063,16 +4847,14 @@
       <c r="D103" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="15">
         <v>4</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="9">
+      <c r="F103" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>569</v>
       </c>
@@ -5085,16 +4867,14 @@
       <c r="D104" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E104" s="15">
         <v>4</v>
       </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="9">
+      <c r="F104" s="9">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>569</v>
       </c>
@@ -5107,16 +4887,14 @@
       <c r="D105" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="15">
         <v>4</v>
       </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="9">
+      <c r="F105" s="9">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>569</v>
       </c>
@@ -5129,16 +4907,14 @@
       <c r="D106" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="15">
         <v>4</v>
       </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="9">
+      <c r="F106" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>569</v>
       </c>
@@ -5151,16 +4927,14 @@
       <c r="D107" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E107" s="15">
         <v>4</v>
       </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="9">
+      <c r="F107" s="9">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>569</v>
       </c>
@@ -5173,16 +4947,14 @@
       <c r="D108" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="15">
         <v>4</v>
       </c>
-      <c r="F108" s="14"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="9">
+      <c r="F108" s="9">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>569</v>
       </c>
@@ -5195,16 +4967,14 @@
       <c r="D109" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="15">
         <v>4</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="9">
+      <c r="F109" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>19</v>
       </c>
@@ -5217,16 +4987,14 @@
       <c r="D110" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="15">
         <v>5</v>
       </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="9">
+      <c r="F110" s="9">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>19</v>
       </c>
@@ -5239,16 +5007,14 @@
       <c r="D111" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="15">
         <v>5</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="9">
+      <c r="F111" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>19</v>
       </c>
@@ -5261,16 +5027,14 @@
       <c r="D112" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="15">
         <v>5</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="9">
+      <c r="F112" s="9">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>19</v>
       </c>
@@ -5283,16 +5047,14 @@
       <c r="D113" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="15">
         <v>5</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="9">
+      <c r="F113" s="9">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>19</v>
       </c>
@@ -5305,16 +5067,14 @@
       <c r="D114" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="15">
         <v>5</v>
       </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="9">
+      <c r="F114" s="9">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>31</v>
       </c>
@@ -5327,16 +5087,14 @@
       <c r="D115" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="12">
         <v>5</v>
       </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="9">
+      <c r="F115" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>31</v>
       </c>
@@ -5349,16 +5107,14 @@
       <c r="D116" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="12">
         <v>5</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="9">
+      <c r="F116" s="9">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>31</v>
       </c>
@@ -5371,16 +5127,14 @@
       <c r="D117" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="12">
         <v>5</v>
       </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="9">
+      <c r="F117" s="9">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>31</v>
       </c>
@@ -5393,16 +5147,14 @@
       <c r="D118" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="12">
         <v>5</v>
       </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="9">
+      <c r="F118" s="9">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>31</v>
       </c>
@@ -5415,16 +5167,14 @@
       <c r="D119" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="12">
         <v>5</v>
       </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="9">
+      <c r="F119" s="9">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>31</v>
       </c>
@@ -5437,16 +5187,14 @@
       <c r="D120" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="12">
         <v>5</v>
       </c>
-      <c r="F120" s="11"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="9">
+      <c r="F120" s="9">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>31</v>
       </c>
@@ -5459,16 +5207,14 @@
       <c r="D121" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="12">
         <v>5</v>
       </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="9">
+      <c r="F121" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>31</v>
       </c>
@@ -5481,16 +5227,14 @@
       <c r="D122" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="12">
         <v>5</v>
       </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="9">
+      <c r="F122" s="9">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>31</v>
       </c>
@@ -5503,16 +5247,14 @@
       <c r="D123" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="12">
         <v>5</v>
       </c>
-      <c r="F123" s="11"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="9">
+      <c r="F123" s="9">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>31</v>
       </c>
@@ -5525,16 +5267,14 @@
       <c r="D124" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="12">
         <v>5</v>
       </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="9">
+      <c r="F124" s="9">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>31</v>
       </c>
@@ -5547,16 +5287,14 @@
       <c r="D125" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="12">
         <v>5</v>
       </c>
-      <c r="F125" s="11"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="9">
+      <c r="F125" s="9">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>31</v>
       </c>
@@ -5569,16 +5307,14 @@
       <c r="D126" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="12">
         <v>5</v>
       </c>
-      <c r="F126" s="11"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="9">
+      <c r="F126" s="9">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>31</v>
       </c>
@@ -5591,16 +5327,14 @@
       <c r="D127" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="12">
         <v>5</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="9">
+      <c r="F127" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>31</v>
       </c>
@@ -5613,16 +5347,14 @@
       <c r="D128" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="12">
         <v>5</v>
       </c>
-      <c r="F128" s="11"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="9">
+      <c r="F128" s="9">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>31</v>
       </c>
@@ -5635,16 +5367,14 @@
       <c r="D129" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="12">
         <v>5</v>
       </c>
-      <c r="F129" s="11"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="9">
+      <c r="F129" s="9">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>31</v>
       </c>
@@ -5657,16 +5387,14 @@
       <c r="D130" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="12">
         <v>5</v>
       </c>
-      <c r="F130" s="11"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="9">
+      <c r="F130" s="9">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>31</v>
       </c>
@@ -5679,16 +5407,14 @@
       <c r="D131" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="12">
         <v>5</v>
       </c>
-      <c r="F131" s="11"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="9">
+      <c r="F131" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>31</v>
       </c>
@@ -5701,16 +5427,14 @@
       <c r="D132" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="12">
         <v>5</v>
       </c>
-      <c r="F132" s="11"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="9">
+      <c r="F132" s="9">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>31</v>
       </c>
@@ -5723,16 +5447,14 @@
       <c r="D133" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="12">
         <v>5</v>
       </c>
-      <c r="F133" s="11"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="9">
+      <c r="F133" s="9">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>31</v>
       </c>
@@ -5745,16 +5467,14 @@
       <c r="D134" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="12">
         <v>5</v>
       </c>
-      <c r="F134" s="11"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="9">
+      <c r="F134" s="9">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>31</v>
       </c>
@@ -5767,16 +5487,14 @@
       <c r="D135" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="12">
         <v>5</v>
       </c>
-      <c r="F135" s="11"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="9">
+      <c r="F135" s="9">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>31</v>
       </c>
@@ -5789,16 +5507,14 @@
       <c r="D136" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="12">
         <v>5</v>
       </c>
-      <c r="F136" s="11"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="9">
+      <c r="F136" s="9">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>398</v>
       </c>
@@ -5811,16 +5527,14 @@
       <c r="D137" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="12">
         <v>5</v>
       </c>
-      <c r="F137" s="11"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="9">
+      <c r="F137" s="9">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>392</v>
       </c>
@@ -5833,16 +5547,14 @@
       <c r="D138" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E138" s="14">
+      <c r="E138" s="15">
         <v>5</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="9">
+      <c r="F138" s="9">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>392</v>
       </c>
@@ -5855,16 +5567,14 @@
       <c r="D139" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E139" s="15">
         <v>5</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="9">
+      <c r="F139" s="9">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>630</v>
       </c>
@@ -5877,16 +5587,14 @@
       <c r="D140" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="12">
         <v>5</v>
       </c>
-      <c r="F140" s="11"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="9">
+      <c r="F140" s="9">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>630</v>
       </c>
@@ -5899,16 +5607,14 @@
       <c r="D141" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="12">
         <v>5</v>
       </c>
-      <c r="F141" s="11"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="9">
+      <c r="F141" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>630</v>
       </c>
@@ -5921,16 +5627,14 @@
       <c r="D142" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="12">
         <v>5</v>
       </c>
-      <c r="F142" s="11"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="9">
+      <c r="F142" s="9">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>172</v>
       </c>
@@ -5943,16 +5647,14 @@
       <c r="D143" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E143" s="15">
         <v>6</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="9">
+      <c r="F143" s="9">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>474</v>
       </c>
@@ -5965,16 +5667,14 @@
       <c r="D144" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="12">
         <v>6</v>
       </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="9">
+      <c r="F144" s="9">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>474</v>
       </c>
@@ -5987,16 +5687,14 @@
       <c r="D145" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="12">
         <v>6</v>
       </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="9">
+      <c r="F145" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>474</v>
       </c>
@@ -6009,16 +5707,14 @@
       <c r="D146" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="12">
         <v>6</v>
       </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="9">
+      <c r="F146" s="9">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>661</v>
       </c>
@@ -6031,16 +5727,14 @@
       <c r="D147" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147" s="15">
         <v>6</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="9">
+      <c r="F147" s="9">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>661</v>
       </c>
@@ -6053,16 +5747,14 @@
       <c r="D148" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148" s="15">
         <v>6</v>
       </c>
-      <c r="F148" s="14"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="9">
+      <c r="F148" s="9">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>661</v>
       </c>
@@ -6075,16 +5767,14 @@
       <c r="D149" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="15">
         <v>6</v>
       </c>
-      <c r="F149" s="14"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="9">
+      <c r="F149" s="9">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>661</v>
       </c>
@@ -6097,16 +5787,14 @@
       <c r="D150" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E150" s="15">
         <v>6</v>
       </c>
-      <c r="F150" s="14"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="9">
+      <c r="F150" s="9">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>661</v>
       </c>
@@ -6119,16 +5807,14 @@
       <c r="D151" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="15">
         <v>6</v>
       </c>
-      <c r="F151" s="14"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="9">
+      <c r="F151" s="9">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>187</v>
       </c>
@@ -6141,16 +5827,14 @@
       <c r="D152" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E152" s="14">
+      <c r="E152" s="15">
         <v>7</v>
       </c>
-      <c r="F152" s="14"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="9">
+      <c r="F152" s="9">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>187</v>
       </c>
@@ -6163,16 +5847,14 @@
       <c r="D153" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="15">
         <v>7</v>
       </c>
-      <c r="F153" s="14"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="9">
+      <c r="F153" s="9">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>187</v>
       </c>
@@ -6185,16 +5867,14 @@
       <c r="D154" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E154" s="14">
+      <c r="E154" s="15">
         <v>7</v>
       </c>
-      <c r="F154" s="14"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="9">
+      <c r="F154" s="9">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>187</v>
       </c>
@@ -6207,16 +5887,14 @@
       <c r="D155" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="15">
         <v>7</v>
       </c>
-      <c r="F155" s="14"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="9">
+      <c r="F155" s="9">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
         <v>187</v>
       </c>
@@ -6229,16 +5907,14 @@
       <c r="D156" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156" s="15">
         <v>7</v>
       </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="9">
+      <c r="F156" s="9">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>187</v>
       </c>
@@ -6251,16 +5927,14 @@
       <c r="D157" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="15">
         <v>7</v>
       </c>
-      <c r="F157" s="14"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="9">
+      <c r="F157" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>187</v>
       </c>
@@ -6273,16 +5947,14 @@
       <c r="D158" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E158" s="14">
+      <c r="E158" s="15">
         <v>7</v>
       </c>
-      <c r="F158" s="14"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="9">
+      <c r="F158" s="9">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>187</v>
       </c>
@@ -6295,16 +5967,14 @@
       <c r="D159" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="15">
         <v>7</v>
       </c>
-      <c r="F159" s="14"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="9">
+      <c r="F159" s="9">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>187</v>
       </c>
@@ -6317,16 +5987,14 @@
       <c r="D160" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E160" s="14">
+      <c r="E160" s="15">
         <v>7</v>
       </c>
-      <c r="F160" s="14"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="9">
+      <c r="F160" s="9">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>302</v>
       </c>
@@ -6339,16 +6007,14 @@
       <c r="D161" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="15">
         <v>7</v>
       </c>
-      <c r="F161" s="14"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="9">
+      <c r="F161" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>302</v>
       </c>
@@ -6361,16 +6027,14 @@
       <c r="D162" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E162" s="15">
         <v>7</v>
       </c>
-      <c r="F162" s="14"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="9">
+      <c r="F162" s="9">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>302</v>
       </c>
@@ -6383,16 +6047,14 @@
       <c r="D163" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E163" s="15">
         <v>7</v>
       </c>
-      <c r="F163" s="14"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="9">
+      <c r="F163" s="9">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>302</v>
       </c>
@@ -6405,16 +6067,14 @@
       <c r="D164" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E164" s="14">
+      <c r="E164" s="15">
         <v>7</v>
       </c>
-      <c r="F164" s="14"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="9">
+      <c r="F164" s="9">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>302</v>
       </c>
@@ -6427,16 +6087,14 @@
       <c r="D165" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E165" s="15">
         <v>7</v>
       </c>
-      <c r="F165" s="14"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="9">
+      <c r="F165" s="9">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>302</v>
       </c>
@@ -6449,16 +6107,14 @@
       <c r="D166" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E166" s="14">
+      <c r="E166" s="15">
         <v>7</v>
       </c>
-      <c r="F166" s="14"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="9">
+      <c r="F166" s="9">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>356</v>
       </c>
@@ -6471,16 +6127,14 @@
       <c r="D167" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167" s="15">
         <v>7</v>
       </c>
-      <c r="F167" s="14"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="9">
+      <c r="F167" s="9">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>356</v>
       </c>
@@ -6493,16 +6147,14 @@
       <c r="D168" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="E168" s="14">
+      <c r="E168" s="15">
         <v>7</v>
       </c>
-      <c r="F168" s="14"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="9">
+      <c r="F168" s="9">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>542</v>
       </c>
@@ -6515,16 +6167,14 @@
       <c r="D169" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169" s="15">
         <v>7</v>
       </c>
-      <c r="F169" s="14"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="9">
+      <c r="F169" s="9">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>542</v>
       </c>
@@ -6537,16 +6187,14 @@
       <c r="D170" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E170" s="15">
         <v>7</v>
       </c>
-      <c r="F170" s="14"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="9">
+      <c r="F170" s="9">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>674</v>
       </c>
@@ -6559,16 +6207,14 @@
       <c r="D171" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="E171" s="11">
+      <c r="E171" s="12">
         <v>7</v>
       </c>
-      <c r="F171" s="11"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="9">
+      <c r="F171" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>674</v>
       </c>
@@ -6581,16 +6227,14 @@
       <c r="D172" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="E172" s="11">
+      <c r="E172" s="12">
         <v>7</v>
       </c>
-      <c r="F172" s="11"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="9">
+      <c r="F172" s="9">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>674</v>
       </c>
@@ -6603,16 +6247,14 @@
       <c r="D173" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="E173" s="11">
+      <c r="E173" s="12">
         <v>7</v>
       </c>
-      <c r="F173" s="11"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="9">
+      <c r="F173" s="9">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>674</v>
       </c>
@@ -6625,16 +6267,14 @@
       <c r="D174" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="E174" s="11">
+      <c r="E174" s="12">
         <v>7</v>
       </c>
-      <c r="F174" s="11"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="9">
+      <c r="F174" s="9">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>90</v>
       </c>
@@ -6647,16 +6287,14 @@
       <c r="D175" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="15">
         <v>8</v>
       </c>
-      <c r="F175" s="14"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="9">
+      <c r="F175" s="9">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>90</v>
       </c>
@@ -6669,16 +6307,14 @@
       <c r="D176" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="15">
         <v>8</v>
       </c>
-      <c r="F176" s="14"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="9">
+      <c r="F176" s="9">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>90</v>
       </c>
@@ -6691,16 +6327,14 @@
       <c r="D177" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="15">
         <v>8</v>
       </c>
-      <c r="F177" s="14"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="9">
+      <c r="F177" s="9">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>90</v>
       </c>
@@ -6713,16 +6347,14 @@
       <c r="D178" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="15">
         <v>8</v>
       </c>
-      <c r="F178" s="14"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="9">
+      <c r="F178" s="9">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>176</v>
       </c>
@@ -6735,16 +6367,14 @@
       <c r="D179" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E179" s="11">
+      <c r="E179" s="12">
         <v>8</v>
       </c>
-      <c r="F179" s="11"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="9">
+      <c r="F179" s="9">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>176</v>
       </c>
@@ -6757,16 +6387,14 @@
       <c r="D180" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E180" s="11">
+      <c r="E180" s="12">
         <v>8</v>
       </c>
-      <c r="F180" s="11"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="9">
+      <c r="F180" s="9">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>176</v>
       </c>
@@ -6779,16 +6407,14 @@
       <c r="D181" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E181" s="11">
+      <c r="E181" s="12">
         <v>8</v>
       </c>
-      <c r="F181" s="11"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="9">
+      <c r="F181" s="9">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>176</v>
       </c>
@@ -6801,16 +6427,14 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="11">
+      <c r="E182" s="12">
         <v>8</v>
       </c>
-      <c r="F182" s="11"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="9">
+      <c r="F182" s="9">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>220</v>
       </c>
@@ -6823,16 +6447,14 @@
       <c r="D183" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183" s="15">
         <v>8</v>
       </c>
-      <c r="F183" s="14"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="9">
+      <c r="F183" s="9">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>317</v>
       </c>
@@ -6845,16 +6467,14 @@
       <c r="D184" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E184" s="11">
+      <c r="E184" s="12">
         <v>8</v>
       </c>
-      <c r="F184" s="11"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="9">
+      <c r="F184" s="9">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>317</v>
       </c>
@@ -6867,16 +6487,14 @@
       <c r="D185" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E185" s="11">
+      <c r="E185" s="12">
         <v>8</v>
       </c>
-      <c r="F185" s="11"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="9">
+      <c r="F185" s="9">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>317</v>
       </c>
@@ -6889,16 +6507,14 @@
       <c r="D186" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E186" s="11">
+      <c r="E186" s="12">
         <v>8</v>
       </c>
-      <c r="F186" s="11"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="9">
+      <c r="F186" s="9">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>317</v>
       </c>
@@ -6911,16 +6527,14 @@
       <c r="D187" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E187" s="11">
+      <c r="E187" s="12">
         <v>8</v>
       </c>
-      <c r="F187" s="11"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="9">
+      <c r="F187" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>317</v>
       </c>
@@ -6933,16 +6547,14 @@
       <c r="D188" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E188" s="11">
+      <c r="E188" s="12">
         <v>8</v>
       </c>
-      <c r="F188" s="11"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="9">
+      <c r="F188" s="9">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>317</v>
       </c>
@@ -6955,16 +6567,14 @@
       <c r="D189" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E189" s="11">
+      <c r="E189" s="12">
         <v>8</v>
       </c>
-      <c r="F189" s="11"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="9">
+      <c r="F189" s="9">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>317</v>
       </c>
@@ -6977,16 +6587,14 @@
       <c r="D190" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E190" s="11">
+      <c r="E190" s="12">
         <v>8</v>
       </c>
-      <c r="F190" s="11"/>
-      <c r="G190" s="12"/>
-      <c r="H190" s="9">
+      <c r="F190" s="9">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>317</v>
       </c>
@@ -6999,16 +6607,14 @@
       <c r="D191" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E191" s="11">
+      <c r="E191" s="12">
         <v>8</v>
       </c>
-      <c r="F191" s="11"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="9">
+      <c r="F191" s="9">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>363</v>
       </c>
@@ -7021,16 +6627,14 @@
       <c r="D192" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E192" s="11">
+      <c r="E192" s="12">
         <v>8</v>
       </c>
-      <c r="F192" s="11"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="9">
+      <c r="F192" s="9">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>363</v>
       </c>
@@ -7043,16 +6647,14 @@
       <c r="D193" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E193" s="11">
+      <c r="E193" s="12">
         <v>8</v>
       </c>
-      <c r="F193" s="11"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="9">
+      <c r="F193" s="9">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>402</v>
       </c>
@@ -7065,16 +6667,14 @@
       <c r="D194" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E194" s="15">
         <v>9</v>
       </c>
-      <c r="F194" s="14"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="9">
+      <c r="F194" s="9">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>402</v>
       </c>
@@ -7087,16 +6687,14 @@
       <c r="D195" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195" s="15">
         <v>9</v>
       </c>
-      <c r="F195" s="14"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="9">
+      <c r="F195" s="9">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>402</v>
       </c>
@@ -7109,16 +6707,14 @@
       <c r="D196" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="E196" s="14">
+      <c r="E196" s="15">
         <v>9</v>
       </c>
-      <c r="F196" s="14"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="9">
+      <c r="F196" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>402</v>
       </c>
@@ -7131,16 +6727,14 @@
       <c r="D197" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="E197" s="14">
+      <c r="E197" s="15">
         <v>9</v>
       </c>
-      <c r="F197" s="14"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="9">
+      <c r="F197" s="9">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>402</v>
       </c>
@@ -7153,16 +6747,14 @@
       <c r="D198" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="E198" s="14">
+      <c r="E198" s="15">
         <v>9</v>
       </c>
-      <c r="F198" s="14"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="9">
+      <c r="F198" s="9">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>402</v>
       </c>
@@ -7175,16 +6767,14 @@
       <c r="D199" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="E199" s="14">
+      <c r="E199" s="15">
         <v>9</v>
       </c>
-      <c r="F199" s="14"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="9">
+      <c r="F199" s="9">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>402</v>
       </c>
@@ -7197,16 +6787,14 @@
       <c r="D200" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E200" s="15">
         <v>9</v>
       </c>
-      <c r="F200" s="14"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="9">
+      <c r="F200" s="9">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>402</v>
       </c>
@@ -7219,16 +6807,14 @@
       <c r="D201" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E201" s="15">
         <v>9</v>
       </c>
-      <c r="F201" s="14"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="9">
+      <c r="F201" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>402</v>
       </c>
@@ -7241,16 +6827,14 @@
       <c r="D202" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E202" s="15">
         <v>9</v>
       </c>
-      <c r="F202" s="14"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="9">
+      <c r="F202" s="9">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>402</v>
       </c>
@@ -7263,16 +6847,14 @@
       <c r="D203" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203" s="15">
         <v>9</v>
       </c>
-      <c r="F203" s="14"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="9">
+      <c r="F203" s="9">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>402</v>
       </c>
@@ -7285,16 +6867,14 @@
       <c r="D204" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204" s="15">
         <v>9</v>
       </c>
-      <c r="F204" s="14"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="9">
+      <c r="F204" s="9">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>402</v>
       </c>
@@ -7307,16 +6887,14 @@
       <c r="D205" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205" s="15">
         <v>9</v>
       </c>
-      <c r="F205" s="14"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="9">
+      <c r="F205" s="9">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>402</v>
       </c>
@@ -7329,16 +6907,14 @@
       <c r="D206" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E206" s="15">
         <v>9</v>
       </c>
-      <c r="F206" s="14"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="9">
+      <c r="F206" s="9">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>402</v>
       </c>
@@ -7351,16 +6927,14 @@
       <c r="D207" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207" s="15">
         <v>9</v>
       </c>
-      <c r="F207" s="14"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="9">
+      <c r="F207" s="9">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>402</v>
       </c>
@@ -7373,16 +6947,14 @@
       <c r="D208" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E208" s="15">
         <v>9</v>
       </c>
-      <c r="F208" s="14"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="9">
+      <c r="F208" s="9">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>658</v>
       </c>
@@ -7395,16 +6967,14 @@
       <c r="D209" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E209" s="11">
+      <c r="E209" s="12">
         <v>9</v>
       </c>
-      <c r="F209" s="11"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="9">
+      <c r="F209" s="9">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>211</v>
       </c>
@@ -7417,16 +6987,14 @@
       <c r="D210" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E210" s="11">
+      <c r="E210" s="12">
         <v>10</v>
       </c>
-      <c r="F210" s="11"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="9">
+      <c r="F210" s="9">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>211</v>
       </c>
@@ -7439,16 +7007,14 @@
       <c r="D211" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E211" s="11">
+      <c r="E211" s="12">
         <v>10</v>
       </c>
-      <c r="F211" s="11"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="9">
+      <c r="F211" s="9">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>211</v>
       </c>
@@ -7461,16 +7027,14 @@
       <c r="D212" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E212" s="11">
+      <c r="E212" s="12">
         <v>10</v>
       </c>
-      <c r="F212" s="11"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="9">
+      <c r="F212" s="9">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>279</v>
       </c>
@@ -7483,16 +7047,14 @@
       <c r="D213" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E213" s="11">
+      <c r="E213" s="12">
         <v>10</v>
       </c>
-      <c r="F213" s="11"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="9">
+      <c r="F213" s="9">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>279</v>
       </c>
@@ -7505,16 +7067,14 @@
       <c r="D214" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E214" s="11">
+      <c r="E214" s="12">
         <v>10</v>
       </c>
-      <c r="F214" s="11"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="9">
+      <c r="F214" s="9">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>279</v>
       </c>
@@ -7527,16 +7087,14 @@
       <c r="D215" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E215" s="11">
+      <c r="E215" s="12">
         <v>10</v>
       </c>
-      <c r="F215" s="11"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="9">
+      <c r="F215" s="9">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>279</v>
       </c>
@@ -7549,16 +7107,14 @@
       <c r="D216" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E216" s="11">
+      <c r="E216" s="12">
         <v>10</v>
       </c>
-      <c r="F216" s="11"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="9">
+      <c r="F216" s="9">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>279</v>
       </c>
@@ -7571,16 +7127,14 @@
       <c r="D217" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E217" s="11">
+      <c r="E217" s="12">
         <v>10</v>
       </c>
-      <c r="F217" s="11"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="9">
+      <c r="F217" s="9">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>279</v>
       </c>
@@ -7593,16 +7147,14 @@
       <c r="D218" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E218" s="11">
+      <c r="E218" s="12">
         <v>10</v>
       </c>
-      <c r="F218" s="11"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="9">
+      <c r="F218" s="9">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>279</v>
       </c>
@@ -7615,16 +7167,14 @@
       <c r="D219" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E219" s="11">
+      <c r="E219" s="12">
         <v>10</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="9">
+      <c r="F219" s="9">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>279</v>
       </c>
@@ -7637,16 +7187,14 @@
       <c r="D220" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E220" s="11">
+      <c r="E220" s="12">
         <v>10</v>
       </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="9">
+      <c r="F220" s="9">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>279</v>
       </c>
@@ -7659,16 +7207,14 @@
       <c r="D221" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E221" s="11">
+      <c r="E221" s="12">
         <v>10</v>
       </c>
-      <c r="F221" s="11"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="9">
+      <c r="F221" s="9">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>442</v>
       </c>
@@ -7681,16 +7227,14 @@
       <c r="D222" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E222" s="11">
+      <c r="E222" s="12">
         <v>10</v>
       </c>
-      <c r="F222" s="11"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="9">
+      <c r="F222" s="9">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
         <v>442</v>
       </c>
@@ -7703,16 +7247,14 @@
       <c r="D223" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E223" s="11">
+      <c r="E223" s="12">
         <v>10</v>
       </c>
-      <c r="F223" s="11"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="9">
+      <c r="F223" s="9">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
         <v>442</v>
       </c>
@@ -7725,16 +7267,14 @@
       <c r="D224" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="E224" s="11">
+      <c r="E224" s="12">
         <v>10</v>
       </c>
-      <c r="F224" s="11"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="9">
+      <c r="F224" s="9">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
         <v>442</v>
       </c>
@@ -7747,16 +7287,14 @@
       <c r="D225" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="E225" s="11">
+      <c r="E225" s="12">
         <v>10</v>
       </c>
-      <c r="F225" s="11"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="9">
+      <c r="F225" s="9">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>442</v>
       </c>
@@ -7769,16 +7307,14 @@
       <c r="D226" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="E226" s="11">
+      <c r="E226" s="12">
         <v>10</v>
       </c>
-      <c r="F226" s="11"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="9">
+      <c r="F226" s="9">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>442</v>
       </c>
@@ -7791,16 +7327,14 @@
       <c r="D227" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E227" s="11">
+      <c r="E227" s="12">
         <v>10</v>
       </c>
-      <c r="F227" s="11"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="9">
+      <c r="F227" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>442</v>
       </c>
@@ -7813,16 +7347,14 @@
       <c r="D228" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E228" s="11">
+      <c r="E228" s="12">
         <v>10</v>
       </c>
-      <c r="F228" s="11"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="9">
+      <c r="F228" s="9">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
         <v>442</v>
       </c>
@@ -7835,16 +7367,14 @@
       <c r="D229" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E229" s="11">
+      <c r="E229" s="12">
         <v>10</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="9">
+      <c r="F229" s="9">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>224</v>
       </c>
@@ -7857,16 +7387,14 @@
       <c r="D230" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E230" s="14">
+      <c r="E230" s="15">
         <v>11</v>
       </c>
-      <c r="F230" s="14"/>
-      <c r="G230" s="15"/>
-      <c r="H230" s="9">
+      <c r="F230" s="9">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>224</v>
       </c>
@@ -7879,16 +7407,14 @@
       <c r="D231" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231" s="15">
         <v>11</v>
       </c>
-      <c r="F231" s="14"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="9">
+      <c r="F231" s="9">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>224</v>
       </c>
@@ -7901,16 +7427,14 @@
       <c r="D232" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232" s="15">
         <v>11</v>
       </c>
-      <c r="F232" s="14"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="9">
+      <c r="F232" s="9">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
         <v>340</v>
       </c>
@@ -7923,16 +7447,14 @@
       <c r="D233" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E233" s="11">
+      <c r="E233" s="12">
         <v>11</v>
       </c>
-      <c r="F233" s="11"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="9">
+      <c r="F233" s="9">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="s">
         <v>340</v>
       </c>
@@ -7945,16 +7467,14 @@
       <c r="D234" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E234" s="11">
+      <c r="E234" s="12">
         <v>11</v>
       </c>
-      <c r="F234" s="11"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="9">
+      <c r="F234" s="9">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
         <v>340</v>
       </c>
@@ -7967,16 +7487,14 @@
       <c r="D235" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="E235" s="11">
+      <c r="E235" s="12">
         <v>11</v>
       </c>
-      <c r="F235" s="11"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="9">
+      <c r="F235" s="9">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>340</v>
       </c>
@@ -7989,16 +7507,14 @@
       <c r="D236" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="E236" s="11">
+      <c r="E236" s="12">
         <v>11</v>
       </c>
-      <c r="F236" s="11"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="9">
+      <c r="F236" s="9">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>340</v>
       </c>
@@ -8011,16 +7527,14 @@
       <c r="D237" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E237" s="11">
+      <c r="E237" s="12">
         <v>11</v>
       </c>
-      <c r="F237" s="11"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="9">
+      <c r="F237" s="9">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
         <v>536</v>
       </c>
@@ -8033,16 +7547,14 @@
       <c r="D238" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="E238" s="11">
+      <c r="E238" s="12">
         <v>11</v>
       </c>
-      <c r="F238" s="11"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="9">
+      <c r="F238" s="9">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
         <v>536</v>
       </c>
@@ -8055,18 +7567,16 @@
       <c r="D239" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="E239" s="11">
+      <c r="E239" s="12">
         <v>11</v>
       </c>
-      <c r="F239" s="11"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="9">
+      <c r="F239" s="9">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B240" s="11" t="s">
         <v>548</v>
@@ -8077,18 +7587,16 @@
       <c r="D240" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="E240" s="11">
+      <c r="E240" s="12">
         <v>11</v>
       </c>
-      <c r="F240" s="11"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="9">
+      <c r="F240" s="9">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>549</v>
@@ -8099,18 +7607,16 @@
       <c r="D241" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="E241" s="11">
+      <c r="E241" s="12">
         <v>11</v>
       </c>
-      <c r="F241" s="11"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="9">
+      <c r="F241" s="9">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B242" s="11" t="s">
         <v>550</v>
@@ -8121,18 +7627,16 @@
       <c r="D242" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="E242" s="11">
+      <c r="E242" s="12">
         <v>11</v>
       </c>
-      <c r="F242" s="11"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="9">
+      <c r="F242" s="9">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B243" s="11" t="s">
         <v>551</v>
@@ -8143,18 +7647,16 @@
       <c r="D243" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="E243" s="11">
+      <c r="E243" s="12">
         <v>11</v>
       </c>
-      <c r="F243" s="11"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="9">
+      <c r="F243" s="9">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B244" s="11" t="s">
         <v>552</v>
@@ -8165,18 +7667,16 @@
       <c r="D244" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="E244" s="11">
+      <c r="E244" s="12">
         <v>11</v>
       </c>
-      <c r="F244" s="11"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="9">
+      <c r="F244" s="9">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B245" s="11" t="s">
         <v>553</v>
@@ -8187,18 +7687,16 @@
       <c r="D245" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E245" s="11">
+      <c r="E245" s="12">
         <v>11</v>
       </c>
-      <c r="F245" s="11"/>
-      <c r="G245" s="12"/>
-      <c r="H245" s="9">
+      <c r="F245" s="9">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B246" s="11" t="s">
         <v>554</v>
@@ -8209,18 +7707,16 @@
       <c r="D246" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E246" s="11">
+      <c r="E246" s="12">
         <v>11</v>
       </c>
-      <c r="F246" s="11"/>
-      <c r="G246" s="12"/>
-      <c r="H246" s="9">
+      <c r="F246" s="9">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B247" s="11" t="s">
         <v>555</v>
@@ -8231,18 +7727,16 @@
       <c r="D247" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E247" s="11">
+      <c r="E247" s="12">
         <v>11</v>
       </c>
-      <c r="F247" s="11"/>
-      <c r="G247" s="12"/>
-      <c r="H247" s="9">
+      <c r="F247" s="9">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B248" s="11" t="s">
         <v>555</v>
@@ -8253,16 +7747,14 @@
       <c r="D248" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E248" s="11">
+      <c r="E248" s="12">
         <v>11</v>
       </c>
-      <c r="F248" s="11"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="9">
+      <c r="F248" s="9">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>639</v>
       </c>
@@ -8275,16 +7767,14 @@
       <c r="D249" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249" s="15">
         <v>11</v>
       </c>
-      <c r="F249" s="14"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="9">
+      <c r="F249" s="9">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>639</v>
       </c>
@@ -8297,16 +7787,14 @@
       <c r="D250" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="E250" s="14">
+      <c r="E250" s="15">
         <v>11</v>
       </c>
-      <c r="F250" s="14"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="9">
+      <c r="F250" s="9">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>639</v>
       </c>
@@ -8319,16 +7807,14 @@
       <c r="D251" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="E251" s="14">
+      <c r="E251" s="15">
         <v>11</v>
       </c>
-      <c r="F251" s="14"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="9">
+      <c r="F251" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>639</v>
       </c>
@@ -8341,16 +7827,14 @@
       <c r="D252" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252" s="15">
         <v>11</v>
       </c>
-      <c r="F252" s="14"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="9">
+      <c r="F252" s="9">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>639</v>
       </c>
@@ -8363,16 +7847,14 @@
       <c r="D253" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253" s="15">
         <v>11</v>
       </c>
-      <c r="F253" s="14"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="9">
+      <c r="F253" s="9">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="18" t="s">
         <v>639</v>
       </c>
@@ -8385,12 +7867,10 @@
       <c r="D254" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="E254" s="19">
+      <c r="E254" s="20">
         <v>11</v>
       </c>
-      <c r="F254" s="19"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="9">
+      <c r="F254" s="9">
         <v>253</v>
       </c>
     </row>

--- a/execute/import/workbooks/National_Transplant_Hospitals.xlsx
+++ b/execute/import/workbooks/National_Transplant_Hospitals.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="705">
   <si>
     <t>State</t>
   </si>
@@ -2142,9 +2142,6 @@
   </si>
   <si>
     <t>Tennessee</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
 </sst>
 </file>
@@ -2690,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3695,8 +3692,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>705</v>
+      <c r="A46" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>109</v>
@@ -3715,8 +3712,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>705</v>
+      <c r="A47" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>110</v>
@@ -3735,8 +3732,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>705</v>
+      <c r="A48" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>111</v>
@@ -3755,8 +3752,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>705</v>
+      <c r="A49" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>112</v>
